--- a/task.xlsx
+++ b/task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\MVC_QT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E5BFA84-166A-4320-9CAA-5783C895E8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B7CEA-5D5A-4138-9526-F0CF7BCD7EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E16C9753-E845-4C4E-827F-AA1A4423BD17}"/>
   </bookViews>
@@ -24,9 +24,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>Mạnh Tường</t>
+  </si>
+  <si>
+    <t>Trường Vương</t>
+  </si>
+  <si>
+    <t>Quỳnh Trâm</t>
+  </si>
+  <si>
+    <t>Thành viên / Task</t>
+  </si>
+  <si>
+    <t>Minh Hiếu</t>
+  </si>
+  <si>
+    <t>(FIGMA)</t>
+  </si>
+  <si>
+    <t>(TEST)</t>
+  </si>
+  <si>
+    <t>(PHP)</t>
+  </si>
+  <si>
+    <t>(TEMPLATE)</t>
+  </si>
+  <si>
+    <t>KHÁC</t>
+  </si>
+  <si>
+    <t>ERD DATABASE</t>
+  </si>
+  <si>
+    <t>ERD USE CASE</t>
+  </si>
+  <si>
+    <t>CASE ĐĂNG NHẬP</t>
+  </si>
+  <si>
+    <t>CASE ĐĂNG KÍ</t>
+  </si>
+  <si>
+    <t>CASE ĐỔI MẬT KHẨU</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>FIGMA DESKTOP</t>
+  </si>
+  <si>
+    <t>FIGMA MOBILE</t>
+  </si>
+  <si>
+    <t>DOCCUMENTARY</t>
+  </si>
+  <si>
+    <t>CÒN LẠI</t>
+  </si>
+  <si>
+    <t>PUBLIC</t>
+  </si>
+  <si>
+    <t>MANAGED GIT</t>
+  </si>
+  <si>
+    <t>MANAGED TRELLO</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>TEST USER: cart/voucher/checkout/history/detail history/contact/notification/review/</t>
+  </si>
+  <si>
+    <t>TEST USER: login/logout/change/forget/register/update info/home/search/filter/product/detail product/comment/</t>
+  </si>
+  <si>
+    <t>ADMIN: toàn bộ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +120,84 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,14 +212,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9900FF"/>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -371,12 +588,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5D045C-E776-40BF-87E7-9506980B9148}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
+    <col min="2" max="22" width="20.77734375" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="10" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="D5:M5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/task.xlsx
+++ b/task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\MVC_QT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B7CEA-5D5A-4138-9526-F0CF7BCD7EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348D9F9A-5583-428A-9F64-43091B4BF4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E16C9753-E845-4C4E-827F-AA1A4423BD17}"/>
   </bookViews>
@@ -102,10 +102,10 @@
     <t>TEST USER: cart/voucher/checkout/history/detail history/contact/notification/review/</t>
   </si>
   <si>
-    <t>TEST USER: login/logout/change/forget/register/update info/home/search/filter/product/detail product/comment/</t>
-  </si>
-  <si>
     <t>ADMIN: toàn bộ</t>
+  </si>
+  <si>
+    <t>TEST USER: login/logout/change/register/update info/home/search/product/detail product/comment/</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F3" sqref="F3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -663,7 +663,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
